--- a/Output_testing/R1_201907/Country/HKD/MN/BENIN_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/BENIN_201907_HKD_MN.xlsx
@@ -641,7 +641,7 @@
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>174</v>

--- a/Output_testing/R1_201907/Country/HKD/MN/BENIN_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/BENIN_201907_HKD_MN.xlsx
@@ -544,8 +544,10 @@
       <c r="C7" s="2" t="n">
         <v>162</v>
       </c>
-      <c r="D7" s="8" t="n">
-        <v>0.474191</v>
+      <c r="D7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="E7" s="8" t="n">
         <v>0.799069</v>
@@ -553,8 +555,10 @@
       <c r="F7" s="8" t="n">
         <v>1.17468</v>
       </c>
-      <c r="G7" s="8" t="n">
-        <v>0</v>
+      <c r="G7" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H7" s="9" t="n">
         <v>68.51205526886845</v>
@@ -621,8 +625,10 @@
       <c r="F9" s="8" t="n">
         <v>6.761486</v>
       </c>
-      <c r="G9" s="8" t="n">
-        <v>0.306035</v>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="H9" s="9" t="n">
         <v>127.8687951810413</v>
@@ -652,11 +658,15 @@
       <c r="E10" s="8" t="n">
         <v>1.115829</v>
       </c>
-      <c r="F10" s="8" t="n">
-        <v>0.200167</v>
+      <c r="F10" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="G10" s="8" t="n">
-        <v>0.411236</v>
+      <c r="G10" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="H10" s="9" t="n">
         <v>11.81995831162064</v>

--- a/Output_testing/R1_201907/Country/HKD/MN/BENIN_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/BENIN_201907_HKD_MN.xlsx
@@ -820,136 +820,489 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>113.790632</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>82.35228608430393</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>28.742934</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>57.12222108590063</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>59.920456</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>66.07138332333486</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>10.059783</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>41.50281639401561</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>165.372074974768</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>5.586975</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>4.043392285103522</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>10.532241</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>20.93123126998751</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>12.589323</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>13.88163644339215</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>5.04382</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>20.8088718598069</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>-16.80552151307193</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>INSECTICIDES, RODENTICIDES, FUNGICIDES, HERBICIDES, ANTI-SPROUTING PRODUCTS AND PLANT-GROWTH REGULATORS, DISINFECTANTS AND SIMILAR PRODUCTS</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D20" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E20" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F20" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G20" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>0.2723295703732173</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>2.499356</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>10.31138675369849</v>
+      </c>
+      <c r="K20" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D21" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E21" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>0.08003449082725479</v>
+      </c>
+      <c r="G21" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>0.4073283015520857</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>1.541467</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>6.359503170041944</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>732.8922485060029</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>743</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>PUMPS (OTHER THAN PUMPS FOR LIQUIDS), AIR COMPRESSORS AND FANS; VENTILATING HOODS INCORPORATING A FAN; CENTRIFUGES; FILTERING APPARATUS; AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D22" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E22" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F22" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>1.808514</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>1.99416075437773</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>1.300704</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>5.366207133390619</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>17.11596849304708</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>PERFUMERY, COSMETICS OR TOILET PREPARATIONS (EXCLUDING SOAPS)</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>0.05395893878042203</v>
+      </c>
+      <c r="E23" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>0.5462008200355553</v>
+      </c>
+      <c r="G23" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H23" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>0.777793</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>3.208876381483635</v>
+      </c>
+      <c r="K23" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRO-DIAGNOSTIC APPARATUS FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY SCIENCES AND RADIOLOGICAL APPARATUS</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>1.523921</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>1.102888488763104</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>1.471526</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>2.924434697781757</v>
+      </c>
+      <c r="G24" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>0.5421649429539915</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>0.511548</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>2.110451360702899</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>126.6987516120026</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>761</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>TELEVISION RECEIVERS (INCLUDING VIDEO MONITORS AND VIDEO PROJECTORS)</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D25" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E25" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F25" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>0.827812</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>0.9127881799106548</v>
+      </c>
+      <c r="I25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>2.049734648536173</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>29.22154598418643</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>2.167522</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>1.568673876756591</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>2.057536</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>4.089040676369351</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>6.400318</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>7.057320524550746</v>
+      </c>
+      <c r="I26" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>1.714330200229417</v>
+      </c>
+      <c r="K26" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>0.714957</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0.5174269829345503</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>1.033783</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>2.05448688992034</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>0.828723</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0.9137926954672045</v>
+      </c>
+      <c r="I27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>1.546673357868105</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>-2.008217932029543</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>14.316873</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>10.36137334335788</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>6.165175</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>12.25235006917761</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>7.207259</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>7.94709526408736</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>1.217066</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>5.021148740226206</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-79.90931122387919</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -981,136 +1334,603 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>PETROLEUM OILS AND OILS OBTAINED FROM BITUMINOUS MINERALS; PREPARATIONS, N.E.S., CONTAINING BY WEIGHT 70% OR MORE OF PETROLEUM OILS OR OF OILS FROM BITUMINOUS MINERALS</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>53.49825859844394</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>1.06872</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>90.97967105935233</v>
+      </c>
+      <c r="I31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>841</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>93.66268022800939</v>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>45.77502068031672</v>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>7.496084039908742</v>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>6.337319771990611</v>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>0.7267207212393423</v>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>1.375268158136684</v>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>0.1489767426022406</v>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>LIVE ANIMALS OTHER THAN ANIMALS OF DIVISION 03</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>035</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>FISH, DRIED, SALTED OR IN BRINE; SMOKED FISH; FLOURS, MEALS AND PELLETS OF FISH, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>HIDES AND SKINS (EXCEPT FURSKINS), RAW</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>SYNTHETIC FIBRES SUITABLE FOR SPINNING</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>WORN CLOTHING AND OTHER WORN TEXTILE ARTICLES; RAGS</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1142,136 +1962,489 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>113.790632</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>82.63587620234114</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>28.742934</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>58.04397591990361</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>59.920456</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>66.93841161139348</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>10.059783</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>41.50281639401561</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>165.372074974768</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>5.586975</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>4.057316198450985</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>10.532241</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>21.2689888578049</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>12.589323</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>14.06379959596407</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>5.04382</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>20.8088718598069</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>-16.80552151307193</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>INSECTICIDES, RODENTICIDES, FUNGICIDES, HERBICIDES, ANTI-SPROUTING PRODUCTS AND PLANT-GROWTH REGULATORS, DISINFECTANTS AND SIMILAR PRODUCTS</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D46" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E46" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F46" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G46" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>0.2759032422007457</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>2.499356</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>10.31138675369849</v>
+      </c>
+      <c r="K46" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D47" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E47" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>0.08132597034966431</v>
+      </c>
+      <c r="G47" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>0.4126735076338812</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>1.541467</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>6.359503170041944</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>732.8922485060029</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>743</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>PUMPS (OTHER THAN PUMPS FOR LIQUIDS), AIR COMPRESSORS AND FANS; VENTILATING HOODS INCORPORATING A FAN; CENTRIFUGES; FILTERING APPARATUS; AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D48" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E48" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F48" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>1.808514</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>2.020329326882421</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>1.300704</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>5.366207133390619</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>17.11596849304708</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>PERFUMERY, COSMETICS OR TOILET PREPARATIONS (EXCLUDING SOAPS)</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>0.05414475295201938</v>
+      </c>
+      <c r="E49" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>0.5550146097768025</v>
+      </c>
+      <c r="G49" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H49" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>0.777793</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>3.208876381483635</v>
+      </c>
+      <c r="K49" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRO-DIAGNOSTIC APPARATUS FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY SCIENCES AND RADIOLOGICAL APPARATUS</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>1.523921</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>1.106686419477378</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>1.471526</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>2.971624946482919</v>
+      </c>
+      <c r="G50" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>0.5492795562508617</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>0.511548</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>2.110451360702899</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>126.6987516120026</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>761</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>TELEVISION RECEIVERS (INCLUDING VIDEO MONITORS AND VIDEO PROJECTORS)</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D51" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E51" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F51" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>0.827812</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>0.9247663334346264</v>
+      </c>
+      <c r="I51" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>2.049734648536173</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>29.22154598418643</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>2.167522</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>1.574075796132768</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>2.057536</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>4.155023632532949</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>6.400318</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>7.149930913873731</v>
+      </c>
+      <c r="I52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>1.714330200229417</v>
+      </c>
+      <c r="K52" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>0.714957</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>0.5192088057125583</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>1.033783</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>2.087639193632971</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>0.828723</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>0.925784030846308</v>
+      </c>
+      <c r="I53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>1.546673357868105</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>-2.008217932029543</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>13.842682</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>10.05269182493315</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>5.366106</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>10.83640686951618</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>6.032579</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>6.739121881519869</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>1.217066</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>5.021148740226206</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-75.07636927650235</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1303,136 +2476,573 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>035</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>FISH, DRIED, SALTED OR IN BRINE; SMOKED FISH; FLOURS, MEALS AND PELLETS OF FISH, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D57" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E57" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F57" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>0.507505</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>7.505820466092808</v>
+      </c>
+      <c r="I57" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>81.46976652997206</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>28.18817480719795</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>10.74186091645598</v>
+      </c>
+      <c r="E58" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>2.038103631776563</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>6.153407</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>91.00672544467297</v>
+      </c>
+      <c r="I58" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>18.53023347002794</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>-98.72329188029936</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D59" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E59" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F59" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G59" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>0.4472685442223795</v>
+      </c>
+      <c r="I59" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J59" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>LIVE ANIMALS OTHER THAN ANIMALS OF DIVISION 03</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G60" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>0.4448726211959915</v>
+      </c>
+      <c r="I60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>0.3283597718016424</v>
+      </c>
+      <c r="I61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>6.680209907509981</v>
+      </c>
+      <c r="E62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>0.1863495687190656</v>
+      </c>
+      <c r="I62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>0.3023299991984453</v>
+      </c>
+      <c r="E63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>0.09877669457565706</v>
+      </c>
+      <c r="G63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>0.0806035832951514</v>
+      </c>
+      <c r="I63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>HIDES AND SKINS (EXCEPT FURSKINS), RAW</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>2.599249</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>76.31649490983389</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>7.452882</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>96.03066123433501</v>
+      </c>
+      <c r="G64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>NON-FERROUS BASE METAL WASTE AND SCRAP, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>3.376512567526582</v>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>1.832458439312764</v>
+      </c>
+      <c r="G65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>611</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>LEATHER</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>2.582591699475114</v>
+      </c>
+      <c r="E66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
